--- a/Data/Traditional Data.xlsx
+++ b/Data/Traditional Data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -379,6 +379,1046 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Brook Trout</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Burbot</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Burbot</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-REF</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Burbot</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10-07-23 - KC-EXP</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Burbot</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>10-07-23 - KC-EXP</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Creek Chub</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Creek Chub</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-REF</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Creek Chub</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>09-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Creek Chub</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>09-07-23 - SunC-REF</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Iowa Darter</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10-07-23 - KC-EXP</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Iowa Darter</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11-07-23 - KC-REF</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Iowa Darter</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11-07-23 - KC-REF</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Lake Chub</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mottled Sculpin</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10-07-23 - KC-EXP</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>HN</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-REF</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-REF</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>09-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>09-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>HN</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>09-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>10-07-23 - KC-EXP</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>11-07-23 - KC-REF</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12-07-23 - HC-REF</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>12-07-23 - HC-REF</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>HN</t>
+        </is>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>12-07-23 - RJ-POND</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>12-07-23 - RJ-POND</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>12-07-23 - SunC-FF</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>13-07-23 - HC-REF</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Northern Pike</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>13-07-23 - HC-REF</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>HN</t>
+        </is>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-REF</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>09-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Walleye</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>12-07-23 - SunC-FF</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-REF</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>08-07-23 - SunC-REF</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>09-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>HN</t>
+        </is>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>09-07-23 - SunC-EXP</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SN</t>
+        </is>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>10-07-23 - KC-EXP</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>11-07-23 - KC-REF</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>12-07-23 - HC-REF</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>12-07-23 - HC-REF</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>12-07-23 - HC-REF</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>HN</t>
+        </is>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>12-07-23 - RJ-POND</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>12-07-23 - SunC-FF</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>13-07-23 - HC-REF</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>White Sucker</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>13-07-23 - HC-REF</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>HN</t>
+        </is>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Yellow Perch</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>10-07-23 - KC-EXP</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>EF</t>
+        </is>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Yellow Perch</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>10-07-23 - KC-EXP</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>MT</t>
+        </is>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Yellow Perch</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>12-07-23 - HC-REF</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Yellow Perch</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>13-07-23 - HC-REF</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>GN</t>
+        </is>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Yellow Perch</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>13-07-23 - HC-REF</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>HN</t>
+        </is>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
